--- a/doors_detection_long_term/scripts/results/yolov5_ap_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_ap_real_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>epochs_gd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>epochs_qd</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_positives</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
@@ -534,6 +539,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -584,6 +594,11 @@
           <t>34</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -634,6 +649,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -684,6 +704,11 @@
           <t>59</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -734,6 +759,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -784,6 +814,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -834,6 +869,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -884,6 +924,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -934,6 +979,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -984,6 +1034,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1034,6 +1089,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1084,6 +1144,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1134,6 +1199,11 @@
           <t>36</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1184,6 +1254,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1234,6 +1309,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1284,6 +1364,11 @@
           <t>38</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1334,6 +1419,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1384,6 +1474,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1434,6 +1529,11 @@
           <t>98</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1484,6 +1584,11 @@
           <t>94</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1534,6 +1639,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1584,6 +1694,11 @@
           <t>91</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1634,6 +1749,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1684,6 +1804,11 @@
           <t>99</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1734,6 +1859,11 @@
           <t>79</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1784,6 +1914,11 @@
           <t>74</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1834,6 +1969,11 @@
           <t>98</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1884,6 +2024,11 @@
           <t>83</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1934,6 +2079,11 @@
           <t>101</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1984,6 +2134,11 @@
           <t>89</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2034,6 +2189,11 @@
           <t>102</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2084,6 +2244,11 @@
           <t>88</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2134,6 +2299,11 @@
           <t>104</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2184,6 +2354,11 @@
           <t>94</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2234,6 +2409,11 @@
           <t>105</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2284,6 +2464,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2334,6 +2519,11 @@
           <t>103</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2384,6 +2574,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2434,6 +2629,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2484,6 +2684,11 @@
           <t>107</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2534,6 +2739,11 @@
           <t>107</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2584,6 +2794,11 @@
           <t>111</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2634,6 +2849,11 @@
           <t>65</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2684,6 +2904,11 @@
           <t>77</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2734,6 +2959,11 @@
           <t>95</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2784,6 +3014,11 @@
           <t>88</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2834,6 +3069,11 @@
           <t>99</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2884,6 +3124,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2934,6 +3179,11 @@
           <t>93</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2984,6 +3234,11 @@
           <t>92</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3034,6 +3289,11 @@
           <t>103</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3084,6 +3344,11 @@
           <t>108</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3134,6 +3399,11 @@
           <t>105</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3184,6 +3454,11 @@
           <t>109</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3234,6 +3509,11 @@
           <t>150</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3284,6 +3564,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3334,6 +3619,11 @@
           <t>160</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3384,6 +3674,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3434,6 +3729,11 @@
           <t>175</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3484,6 +3784,11 @@
           <t>120</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3534,6 +3839,11 @@
           <t>133</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3584,6 +3894,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3634,6 +3949,11 @@
           <t>158</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3684,6 +4004,11 @@
           <t>107</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3734,6 +4059,11 @@
           <t>157</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3784,6 +4114,11 @@
           <t>111</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3834,6 +4169,11 @@
           <t>144</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3884,6 +4224,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3934,6 +4279,11 @@
           <t>165</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3984,6 +4334,11 @@
           <t>108</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4034,6 +4389,11 @@
           <t>169</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4082,6 +4442,11 @@
       <c r="J73" t="inlineStr">
         <is>
           <t>119</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/yolov5_ap_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_ap_real_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.7903225806451613</t>
+          <t>0.6488985051140824</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.8384826393035032</t>
+          <t>0.6146305609720241</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.8548387096774194</t>
+          <t>0.7903225806451613</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.8118488299008809</t>
+          <t>0.8384826393035032</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.8738623518963325</t>
+          <t>0.8118488299008809</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.6370967741935484</t>
+          <t>0.8548387096774194</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.6636881507155784</t>
+          <t>0.8738623518963325</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.7903225806451613</t>
+          <t>0.46706281833616303</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.7303076114873708</t>
+          <t>0.42799722799722795</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.8145161290322581</t>
+          <t>0.6370967741935484</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.7888491414094555</t>
+          <t>0.6636881507155784</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.8225806451612904</t>
+          <t>0.7903225806451613</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.7890351638211304</t>
+          <t>0.7303076114873708</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.8387096774193549</t>
+          <t>0.8145161290322581</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2316,12 +2316,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.828106078973001</t>
+          <t>0.7888491414094555</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.8313988543864952</t>
+          <t>0.6755000438421287</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.8442336149385385</t>
+          <t>0.6157691847445165</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.7303901475683235</t>
+          <t>0.8225806451612904</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.7089168123380745</t>
+          <t>0.7890351638211304</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.8040639198514618</t>
+          <t>0.8387096774193549</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.8089521886607457</t>
+          <t>0.828106078973001</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.7717391304347826</t>
+          <t>0.8313988543864952</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.8396283198012592</t>
+          <t>0.8442336149385385</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2811,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.46114921914739365</t>
+          <t>0.5015882738299355</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.5622966342189147</t>
+          <t>0.6236745191141815</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6816989195270091</t>
+          <t>0.7303901475683235</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.6633736191794697</t>
+          <t>0.7089168123380745</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.712926761075928</t>
+          <t>0.8040639198514618</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.7235567901707507</t>
+          <t>0.8089521886607457</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.657466238291052</t>
+          <t>0.7717391304347826</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.667360642177308</t>
+          <t>0.8396283198012592</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7361905175200075</t>
+          <t>0.35333333333333306</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.8168096054888503</t>
+          <t>0.32396651547000027</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.750101766794903</t>
+          <t>0.46114921914739365</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.8185880196109455</t>
+          <t>0.5622966342189147</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3496,22 +3496,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.7547362355227156</t>
+          <t>0.6816989195270091</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3551,22 +3551,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.774506183597086</t>
+          <t>0.6633736191794697</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3606,22 +3606,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.811575627746493</t>
+          <t>0.712926761075928</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3661,17 +3661,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.8258937291131916</t>
+          <t>0.7235567901707507</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3716,17 +3716,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.894411628865909</t>
+          <t>0.5115716866505371</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3741,17 +3741,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3771,22 +3771,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.8800515391110012</t>
+          <t>0.6141517712991499</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3826,22 +3826,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.6689233207448094</t>
+          <t>0.657466238291052</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.6978675645342326</t>
+          <t>0.667360642177308</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3936,22 +3936,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.8017843658846153</t>
+          <t>0.7361905175200075</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3991,22 +3991,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.7923207611281006</t>
+          <t>0.8168096054888503</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.7940060253789812</t>
+          <t>0.750101766794903</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4101,22 +4101,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.8181165902506318</t>
+          <t>0.8185880196109455</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.7293164396508285</t>
+          <t>0.583570975098203</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.7740119945589542</t>
+          <t>0.5859173670567774</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.826126589250591</t>
+          <t>0.7547362355227156</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.7952948902948913</t>
+          <t>0.774506183597086</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.862619829346343</t>
+          <t>0.811575627746493</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>160</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4406,45 +4406,1035 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.8258937291131916</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>QD_75</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.894411628865909</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.8800515391110012</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.3289840840846111</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.43766829529541407</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0.6689233207448094</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.6978675645342326</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0.8017843658846153</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0.7923207611281006</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0.7940060253789812</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.8181165902506318</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>gibson_deep_doors_2</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0.542882907855523</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.6436568678014344</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0.7293164396508285</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0.7740119945589542</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0.826126589250591</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.7952948902948913</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0.862619829346343</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>0.8717949282537952</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>7</t>
         </is>
